--- a/src/main/java/com/weather/excel/util/WeatherReportExcel.xlsx
+++ b/src/main/java/com/weather/excel/util/WeatherReportExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +43,13 @@
   </si>
   <si>
     <t>https://api.whatsapp.com/send?phone=919542856170</t>
+  </si>
+  <si>
+    <t>CURRENT WEATHER: 31°C
+RealFeel® 35°
+TONIGHT’S WEATHER FORECAST: 33°Hi
+RealFeel® 37°
+Cloudy</t>
   </si>
 </sst>
 </file>
@@ -88,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -96,6 +103,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -389,7 +398,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="53.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="36.35546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="36.14453125" collapsed="true"/>
     <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -397,7 +406,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
     </row>
@@ -406,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -414,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
